--- a/Data/A股上市公司关系网/关系网[603776.SH].xlsx
+++ b/Data/A股上市公司关系网/关系网[603776.SH].xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="765">
   <si>
     <t>永安行[603776.SH] - 关系概览图</t>
   </si>
@@ -52,21 +52,57 @@
     <t>客户</t>
   </si>
   <si>
+    <t>天津市远东蓝剑科技有限公司</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>8,718.19</t>
+  </si>
+  <si>
+    <t>丹阳港奇车辆部件有限公司</t>
+  </si>
+  <si>
+    <t>3,981.38</t>
+  </si>
+  <si>
+    <t>常州安普特电子科技有限公司</t>
+  </si>
+  <si>
+    <t>1,805.28</t>
+  </si>
+  <si>
+    <t>金坛富鑫</t>
+  </si>
+  <si>
+    <t>1,014.78</t>
+  </si>
+  <si>
+    <t>无锡迁度金属制品有限公司</t>
+  </si>
+  <si>
+    <t>960.32</t>
+  </si>
+  <si>
     <t>永安行[603776.SH] - 下游</t>
   </si>
   <si>
     <t>客户名称</t>
   </si>
   <si>
+    <t>潍坊市公共自行车管理中心(潍坊市城市管理行政执法局)</t>
+  </si>
+  <si>
+    <t>6,221.94</t>
+  </si>
+  <si>
     <t>南京公共自行车有限公司</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2016-12-31</t>
-  </si>
-  <si>
     <t>3,432.87</t>
   </si>
   <si>
@@ -76,6 +112,18 @@
     <t>2,468.07</t>
   </si>
   <si>
+    <t>徐州市城市管理局</t>
+  </si>
+  <si>
+    <t>2,453.55</t>
+  </si>
+  <si>
+    <t>昆山市城市综合管理处</t>
+  </si>
+  <si>
+    <t>2,223.18</t>
+  </si>
+  <si>
     <t>山东征途信息科技股份有限公司</t>
   </si>
   <si>
@@ -253,24 +301,24 @@
     <t>深圳市柔宇科技有限公司</t>
   </si>
   <si>
+    <t>烟台荣昌制药股份有限公司</t>
+  </si>
+  <si>
     <t>百富餐饮股份有限公司</t>
   </si>
   <si>
-    <t>烟台荣昌制药股份有限公司</t>
-  </si>
-  <si>
     <t>深圳市中兴特种设备有限责任公司</t>
   </si>
   <si>
     <t>深圳市中新赛克科技股份有限公司</t>
   </si>
   <si>
+    <t>北京品友互动信息技术股份公司</t>
+  </si>
+  <si>
     <t>明阳智慧能源集团股份公司</t>
   </si>
   <si>
-    <t>北京品友互动信息技术股份公司</t>
-  </si>
-  <si>
     <t>郑州煤矿机械集团股份有限公司</t>
   </si>
   <si>
@@ -283,30 +331,30 @@
     <t>匹克体育用品有限公司</t>
   </si>
   <si>
+    <t>前沿生物药业(南京)股份有限公司</t>
+  </si>
+  <si>
     <t>爱侣健康科技股份有限公司</t>
   </si>
   <si>
     <t>中山康方生物医药有限公司</t>
   </si>
   <si>
-    <t>前沿生物药业(南京)股份有限公司</t>
-  </si>
-  <si>
     <t>晶科能源有限公司</t>
   </si>
   <si>
+    <t>乐视影业(北京)有限公司</t>
+  </si>
+  <si>
     <t>上海欢校信息科技有限公司</t>
   </si>
   <si>
-    <t>乐视影业(北京)有限公司</t>
+    <t>深圳市葫芦机器人科技有限公司</t>
   </si>
   <si>
     <t>广州盛成妈妈网络科技股份有限公司</t>
   </si>
   <si>
-    <t>深圳市葫芦机器人科技有限公司</t>
-  </si>
-  <si>
     <t>山西锌业集团有限公司</t>
   </si>
   <si>
@@ -316,15 +364,15 @@
     <t>星环信息科技(上海)有限公司</t>
   </si>
   <si>
+    <t>深圳飞豹航天航空科技有限公司</t>
+  </si>
+  <si>
     <t>浙江网竞网络科技有限公司</t>
   </si>
   <si>
     <t>江苏万林现代物流股份有限公司</t>
   </si>
   <si>
-    <t>深圳飞豹航天航空科技有限公司</t>
-  </si>
-  <si>
     <t>深圳市年富供应链有限公司</t>
   </si>
   <si>
@@ -415,33 +463,33 @@
     <t>深圳市亿鑫投资有限公司</t>
   </si>
   <si>
+    <t>北京中石伟业科技股份有限公司</t>
+  </si>
+  <si>
+    <t>深圳市福田投资发展公司</t>
+  </si>
+  <si>
+    <t>山东大业股份有限公司</t>
+  </si>
+  <si>
+    <t>深圳市盐田港集团有限公司</t>
+  </si>
+  <si>
+    <t>江苏一块去网络股份有限公司</t>
+  </si>
+  <si>
+    <t>广深铁路股份有限公司</t>
+  </si>
+  <si>
+    <t>江苏正丹化学工业股份有限公司</t>
+  </si>
+  <si>
+    <t>中兴通讯股份有限公司</t>
+  </si>
+  <si>
     <t>深圳市联诚发科技股份有限公司</t>
   </si>
   <si>
-    <t>深圳市福田投资发展公司</t>
-  </si>
-  <si>
-    <t>北京中石伟业科技股份有限公司</t>
-  </si>
-  <si>
-    <t>深圳市盐田港集团有限公司</t>
-  </si>
-  <si>
-    <t>山东大业股份有限公司</t>
-  </si>
-  <si>
-    <t>广深铁路股份有限公司</t>
-  </si>
-  <si>
-    <t>江苏一块去网络股份有限公司</t>
-  </si>
-  <si>
-    <t>中兴通讯股份有限公司</t>
-  </si>
-  <si>
-    <t>江苏正丹化学工业股份有限公司</t>
-  </si>
-  <si>
     <t>赛特斯信息科技股份有限公司</t>
   </si>
   <si>
@@ -466,6 +514,9 @@
     <t>深圳农金圈金融服务有限公司</t>
   </si>
   <si>
+    <t>苏州恒铭达电子科技股份有限公司</t>
+  </si>
+  <si>
     <t>天津久日新材料股份有限公司</t>
   </si>
   <si>
@@ -490,9 +541,6 @@
     <t>山东华光光电子股份有限公司</t>
   </si>
   <si>
-    <t>山西澳坤生物农业股份有限公司</t>
-  </si>
-  <si>
     <t>苏州冠新创业投资中心(有限合伙)</t>
   </si>
   <si>
@@ -514,10 +562,37 @@
     <t>参控股名称</t>
   </si>
   <si>
+    <t>常熟便民公共自行车服务有限公司</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>南通永安公共自行车有限公司</t>
+  </si>
+  <si>
+    <t>常州永安公共自行车运营有限公司</t>
+  </si>
+  <si>
+    <t>无锡市爱派克科技有限公司</t>
+  </si>
+  <si>
+    <t>上海永兴自行车租赁服务有限公司</t>
+  </si>
+  <si>
+    <t>安徽阜安智能交通科技有限公司</t>
+  </si>
+  <si>
     <t>永安公共服务布市有限责任公司</t>
   </si>
   <si>
-    <t>100.00</t>
+    <t>安徽永安低碳环保科技有限公司</t>
+  </si>
+  <si>
+    <t>淮南永科交通科技有限公司</t>
+  </si>
+  <si>
+    <t>安徽永安行交通科技有限公司</t>
   </si>
   <si>
     <t>永安(开曼)投资有限公司</t>
@@ -529,33 +604,6 @@
     <t>江苏小安汽车科技有限公司</t>
   </si>
   <si>
-    <t>常熟便民公共自行车服务有限公司</t>
-  </si>
-  <si>
-    <t>无锡市爱派克科技有限公司</t>
-  </si>
-  <si>
-    <t>南通永安公共自行车有限公司</t>
-  </si>
-  <si>
-    <t>常州永安公共自行车运营有限公司</t>
-  </si>
-  <si>
-    <t>上海永兴自行车租赁服务有限公司</t>
-  </si>
-  <si>
-    <t>安徽阜安智能交通科技有限公司</t>
-  </si>
-  <si>
-    <t>安徽永安低碳环保科技有限公司</t>
-  </si>
-  <si>
-    <t>淮南永科交通科技有限公司</t>
-  </si>
-  <si>
-    <t>安徽永安行交通科技有限公司</t>
-  </si>
-  <si>
     <t>苏州自由运动科技有限公司</t>
   </si>
   <si>
@@ -595,6 +643,9 @@
     <t>溧阳红土新经济创业投资基金合伙企业(有限合伙)</t>
   </si>
   <si>
+    <t>常州天融股权投资中心(有限合伙)</t>
+  </si>
+  <si>
     <t>常州和泰股权投资有限公司</t>
   </si>
   <si>
@@ -1279,6 +1330,537 @@
     <t>永安行[603776.SH] - 概念</t>
   </si>
   <si>
+    <t>高送转预期</t>
+  </si>
+  <si>
+    <t>嘉友国际物流股份有限公司</t>
+  </si>
+  <si>
+    <t>603871.SH</t>
+  </si>
+  <si>
+    <t>324,424.93</t>
+  </si>
+  <si>
+    <t>300677.SZ</t>
+  </si>
+  <si>
+    <t>175,047.76</t>
+  </si>
+  <si>
+    <t>厦门金牌厨柜股份有限公司</t>
+  </si>
+  <si>
+    <t>603180.SH</t>
+  </si>
+  <si>
+    <t>144,196.71</t>
+  </si>
+  <si>
+    <t>厦门吉比特网络技术股份有限公司</t>
+  </si>
+  <si>
+    <t>603444.SH</t>
+  </si>
+  <si>
+    <t>144,000.77</t>
+  </si>
+  <si>
+    <t>江苏中旗科技股份有限公司</t>
+  </si>
+  <si>
+    <t>300575.SZ</t>
+  </si>
+  <si>
+    <t>129,505.97</t>
+  </si>
+  <si>
+    <t>浙江大元泵业股份有限公司</t>
+  </si>
+  <si>
+    <t>603757.SH</t>
+  </si>
+  <si>
+    <t>112,323.27</t>
+  </si>
+  <si>
+    <t>深圳市飞荣达科技股份有限公司</t>
+  </si>
+  <si>
+    <t>300602.SZ</t>
+  </si>
+  <si>
+    <t>103,641.03</t>
+  </si>
+  <si>
+    <t>江山欧派门业股份有限公司</t>
+  </si>
+  <si>
+    <t>603208.SH</t>
+  </si>
+  <si>
+    <t>100,973.89</t>
+  </si>
+  <si>
+    <t>深圳市新星轻合金材料股份有限公司</t>
+  </si>
+  <si>
+    <t>603978.SH</t>
+  </si>
+  <si>
+    <t>100,918.35</t>
+  </si>
+  <si>
+    <t>广东凌霄泵业股份有限公司</t>
+  </si>
+  <si>
+    <t>002884.SZ</t>
+  </si>
+  <si>
+    <t>98,368.81</t>
+  </si>
+  <si>
+    <t>江苏精研科技股份有限公司</t>
+  </si>
+  <si>
+    <t>300709.SZ</t>
+  </si>
+  <si>
+    <t>92,228.59</t>
+  </si>
+  <si>
+    <t>武汉塞力斯医疗科技股份有限公司</t>
+  </si>
+  <si>
+    <t>603716.SH</t>
+  </si>
+  <si>
+    <t>92,051.65</t>
+  </si>
+  <si>
+    <t>武汉精测电子集团股份有限公司</t>
+  </si>
+  <si>
+    <t>300567.SZ</t>
+  </si>
+  <si>
+    <t>89,508.10</t>
+  </si>
+  <si>
+    <t>深圳市三利谱光电科技股份有限公司</t>
+  </si>
+  <si>
+    <t>002876.SZ</t>
+  </si>
+  <si>
+    <t>81,761.38</t>
+  </si>
+  <si>
+    <t>四川国光农化股份有限公司</t>
+  </si>
+  <si>
+    <t>002749.SZ</t>
+  </si>
+  <si>
+    <t>73,732.31</t>
+  </si>
+  <si>
+    <t>广州赛意信息科技股份有限公司</t>
+  </si>
+  <si>
+    <t>300687.SZ</t>
+  </si>
+  <si>
+    <t>70,889.55</t>
+  </si>
+  <si>
+    <t>上海泛微网络科技股份有限公司</t>
+  </si>
+  <si>
+    <t>603039.SH</t>
+  </si>
+  <si>
+    <t>70,421.77</t>
+  </si>
+  <si>
+    <t>天津绿茵景观生态建设股份有限公司</t>
+  </si>
+  <si>
+    <t>002887.SZ</t>
+  </si>
+  <si>
+    <t>69,569.60</t>
+  </si>
+  <si>
+    <t>倍加洁集团股份有限公司</t>
+  </si>
+  <si>
+    <t>603059.SH</t>
+  </si>
+  <si>
+    <t>66,886.33</t>
+  </si>
+  <si>
+    <t>浙江友邦集成吊顶股份有限公司</t>
+  </si>
+  <si>
+    <t>002718.SZ</t>
+  </si>
+  <si>
+    <t>66,784.36</t>
+  </si>
+  <si>
+    <t>东莞市华立实业股份有限公司</t>
+  </si>
+  <si>
+    <t>603038.SH</t>
+  </si>
+  <si>
+    <t>64,963.69</t>
+  </si>
+  <si>
+    <t>四川川环科技股份有限公司</t>
+  </si>
+  <si>
+    <t>300547.SZ</t>
+  </si>
+  <si>
+    <t>64,777.44</t>
+  </si>
+  <si>
+    <t>佩蒂动物营养科技股份有限公司</t>
+  </si>
+  <si>
+    <t>300673.SZ</t>
+  </si>
+  <si>
+    <t>63,199.79</t>
+  </si>
+  <si>
+    <t>浙江兆丰机电股份有限公司</t>
+  </si>
+  <si>
+    <t>300695.SZ</t>
+  </si>
+  <si>
+    <t>60,847.33</t>
+  </si>
+  <si>
+    <t>浙江长盛滑动轴承股份有限公司</t>
+  </si>
+  <si>
+    <t>300718.SZ</t>
+  </si>
+  <si>
+    <t>56,650.72</t>
+  </si>
+  <si>
+    <t>珠海英搏尔电气股份有限公司</t>
+  </si>
+  <si>
+    <t>300681.SZ</t>
+  </si>
+  <si>
+    <t>53,623.05</t>
+  </si>
+  <si>
+    <t>圣邦微电子(北京)股份有限公司</t>
+  </si>
+  <si>
+    <t>300661.SZ</t>
+  </si>
+  <si>
+    <t>53,150.53</t>
+  </si>
+  <si>
+    <t>002912.SZ</t>
+  </si>
+  <si>
+    <t>49,781.06</t>
+  </si>
+  <si>
+    <t>广东凯普生物科技股份有限公司</t>
+  </si>
+  <si>
+    <t>300639.SZ</t>
+  </si>
+  <si>
+    <t>47,908.51</t>
+  </si>
+  <si>
+    <t>新股</t>
+  </si>
+  <si>
+    <t>德邦物流股份有限公司</t>
+  </si>
+  <si>
+    <t>603056.SH</t>
+  </si>
+  <si>
+    <t>2,035,010.60</t>
+  </si>
+  <si>
+    <t>华能澜沧江水电股份有限公司</t>
+  </si>
+  <si>
+    <t>600025.SH</t>
+  </si>
+  <si>
+    <t>1,284,757.69</t>
+  </si>
+  <si>
+    <t>红星美凯龙家居集团股份有限公司</t>
+  </si>
+  <si>
+    <t>601828.SH</t>
+  </si>
+  <si>
+    <t>1,095,951.27</t>
+  </si>
+  <si>
+    <t>深圳市东方嘉盛供应链股份有限公司</t>
+  </si>
+  <si>
+    <t>002889.SZ</t>
+  </si>
+  <si>
+    <t>1,014,333.23</t>
+  </si>
+  <si>
+    <t>成都银行股份有限公司</t>
+  </si>
+  <si>
+    <t>601838.SH</t>
+  </si>
+  <si>
+    <t>965,411.80</t>
+  </si>
+  <si>
+    <t>江苏鼎胜新能源材料股份有限公司</t>
+  </si>
+  <si>
+    <t>603876.SH</t>
+  </si>
+  <si>
+    <t>920,040.02</t>
+  </si>
+  <si>
+    <t>上海拉夏贝尔服饰股份有限公司</t>
+  </si>
+  <si>
+    <t>603157.SH</t>
+  </si>
+  <si>
+    <t>899,870.90</t>
+  </si>
+  <si>
+    <t>山东出版传媒股份有限公司</t>
+  </si>
+  <si>
+    <t>601019.SH</t>
+  </si>
+  <si>
+    <t>890,092.07</t>
+  </si>
+  <si>
+    <t>华扬联众数字技术股份有限公司</t>
+  </si>
+  <si>
+    <t>603825.SH</t>
+  </si>
+  <si>
+    <t>821,643.82</t>
+  </si>
+  <si>
+    <t>无锡药明康德新药开发股份有限公司</t>
+  </si>
+  <si>
+    <t>603259.SH</t>
+  </si>
+  <si>
+    <t>776,525.99</t>
+  </si>
+  <si>
+    <t>河北养元智汇饮品股份有限公司</t>
+  </si>
+  <si>
+    <t>603156.SH</t>
+  </si>
+  <si>
+    <t>774,058.40</t>
+  </si>
+  <si>
+    <t>大参林医药集团股份有限公司</t>
+  </si>
+  <si>
+    <t>603233.SH</t>
+  </si>
+  <si>
+    <t>742,119.69</t>
+  </si>
+  <si>
+    <t>亚普汽车部件股份有限公司</t>
+  </si>
+  <si>
+    <t>603013.SH</t>
+  </si>
+  <si>
+    <t>707,543.41</t>
+  </si>
+  <si>
+    <t>秦皇岛港股份有限公司</t>
+  </si>
+  <si>
+    <t>601326.SH</t>
+  </si>
+  <si>
+    <t>703,324.87</t>
+  </si>
+  <si>
+    <t>合盛硅业股份有限公司</t>
+  </si>
+  <si>
+    <t>603260.SH</t>
+  </si>
+  <si>
+    <t>695,003.76</t>
+  </si>
+  <si>
+    <t>惠州市德赛西威汽车电子股份有限公司</t>
+  </si>
+  <si>
+    <t>002920.SZ</t>
+  </si>
+  <si>
+    <t>601,030.08</t>
+  </si>
+  <si>
+    <t>深南电路股份有限公司</t>
+  </si>
+  <si>
+    <t>002916.SZ</t>
+  </si>
+  <si>
+    <t>568,693.94</t>
+  </si>
+  <si>
+    <t>招商局公路网络科技控股股份有限公司</t>
+  </si>
+  <si>
+    <t>001965.SZ</t>
+  </si>
+  <si>
+    <t>534,066.43</t>
+  </si>
+  <si>
+    <t>福建傲农生物科技集团股份有限公司</t>
+  </si>
+  <si>
+    <t>603363.SH</t>
+  </si>
+  <si>
+    <t>490,266.01</t>
+  </si>
+  <si>
+    <t>中国出版传媒股份有限公司</t>
+  </si>
+  <si>
+    <t>601949.SH</t>
+  </si>
+  <si>
+    <t>469,655.64</t>
+  </si>
+  <si>
+    <t>浙商证券股份有限公司</t>
+  </si>
+  <si>
+    <t>601878.SH</t>
+  </si>
+  <si>
+    <t>461,061.24</t>
+  </si>
+  <si>
+    <t>浙江长城电工科技股份有限公司</t>
+  </si>
+  <si>
+    <t>603897.SH</t>
+  </si>
+  <si>
+    <t>458,395.09</t>
+  </si>
+  <si>
+    <t>佛山市燃气集团股份有限公司</t>
+  </si>
+  <si>
+    <t>002911.SZ</t>
+  </si>
+  <si>
+    <t>429,222.95</t>
+  </si>
+  <si>
+    <t>惠州市华阳集团股份有限公司</t>
+  </si>
+  <si>
+    <t>002906.SZ</t>
+  </si>
+  <si>
+    <t>416,584.80</t>
+  </si>
+  <si>
+    <t>财通证券股份有限公司</t>
+  </si>
+  <si>
+    <t>601108.SH</t>
+  </si>
+  <si>
+    <t>401,153.37</t>
+  </si>
+  <si>
+    <t>广州金域医学检验集团股份有限公司</t>
+  </si>
+  <si>
+    <t>603882.SH</t>
+  </si>
+  <si>
+    <t>379,171.77</t>
+  </si>
+  <si>
+    <t>中农立华生物科技股份有限公司</t>
+  </si>
+  <si>
+    <t>603970.SH</t>
+  </si>
+  <si>
+    <t>350,346.22</t>
+  </si>
+  <si>
+    <t>华夏航空股份有限公司</t>
+  </si>
+  <si>
+    <t>002928.SZ</t>
+  </si>
+  <si>
+    <t>344,844.70</t>
+  </si>
+  <si>
+    <t>索通发展股份有限公司</t>
+  </si>
+  <si>
+    <t>603612.SH</t>
+  </si>
+  <si>
+    <t>328,112.18</t>
+  </si>
+  <si>
+    <t>厦门盈趣科技股份有限公司</t>
+  </si>
+  <si>
+    <t>002925.SZ</t>
+  </si>
+  <si>
+    <t>326,719.57</t>
+  </si>
+  <si>
     <t>共享单车</t>
   </si>
   <si>
@@ -1456,6 +2038,15 @@
     <t>48,280,434.16</t>
   </si>
   <si>
+    <t>富士康工业互联网股份有限公司</t>
+  </si>
+  <si>
+    <t>601138.SH</t>
+  </si>
+  <si>
+    <t>35,454,385.10</t>
+  </si>
+  <si>
     <t>中国太平洋保险(集团)股份有限公司</t>
   </si>
   <si>
@@ -1598,546 +2189,6 @@
   </si>
   <si>
     <t>20,329,063.43</t>
-  </si>
-  <si>
-    <t>交通银行股份有限公司</t>
-  </si>
-  <si>
-    <t>601328.SH</t>
-  </si>
-  <si>
-    <t>19,601,100.00</t>
-  </si>
-  <si>
-    <t>新股</t>
-  </si>
-  <si>
-    <t>德邦物流股份有限公司</t>
-  </si>
-  <si>
-    <t>603056.SH</t>
-  </si>
-  <si>
-    <t>2,035,010.60</t>
-  </si>
-  <si>
-    <t>华能澜沧江水电股份有限公司</t>
-  </si>
-  <si>
-    <t>600025.SH</t>
-  </si>
-  <si>
-    <t>1,284,757.69</t>
-  </si>
-  <si>
-    <t>红星美凯龙家居集团股份有限公司</t>
-  </si>
-  <si>
-    <t>601828.SH</t>
-  </si>
-  <si>
-    <t>1,095,951.27</t>
-  </si>
-  <si>
-    <t>深圳市东方嘉盛供应链股份有限公司</t>
-  </si>
-  <si>
-    <t>002889.SZ</t>
-  </si>
-  <si>
-    <t>1,014,333.23</t>
-  </si>
-  <si>
-    <t>成都银行股份有限公司</t>
-  </si>
-  <si>
-    <t>601838.SH</t>
-  </si>
-  <si>
-    <t>965,411.80</t>
-  </si>
-  <si>
-    <t>江苏鼎胜新能源材料股份有限公司</t>
-  </si>
-  <si>
-    <t>603876.SH</t>
-  </si>
-  <si>
-    <t>920,040.02</t>
-  </si>
-  <si>
-    <t>上海拉夏贝尔服饰股份有限公司</t>
-  </si>
-  <si>
-    <t>603157.SH</t>
-  </si>
-  <si>
-    <t>899,870.90</t>
-  </si>
-  <si>
-    <t>山东出版传媒股份有限公司</t>
-  </si>
-  <si>
-    <t>601019.SH</t>
-  </si>
-  <si>
-    <t>890,092.07</t>
-  </si>
-  <si>
-    <t>华扬联众数字技术股份有限公司</t>
-  </si>
-  <si>
-    <t>603825.SH</t>
-  </si>
-  <si>
-    <t>821,643.82</t>
-  </si>
-  <si>
-    <t>河北养元智汇饮品股份有限公司</t>
-  </si>
-  <si>
-    <t>603156.SH</t>
-  </si>
-  <si>
-    <t>774,058.40</t>
-  </si>
-  <si>
-    <t>大参林医药集团股份有限公司</t>
-  </si>
-  <si>
-    <t>603233.SH</t>
-  </si>
-  <si>
-    <t>742,119.69</t>
-  </si>
-  <si>
-    <t>秦皇岛港股份有限公司</t>
-  </si>
-  <si>
-    <t>601326.SH</t>
-  </si>
-  <si>
-    <t>703,324.87</t>
-  </si>
-  <si>
-    <t>合盛硅业股份有限公司</t>
-  </si>
-  <si>
-    <t>603260.SH</t>
-  </si>
-  <si>
-    <t>695,003.76</t>
-  </si>
-  <si>
-    <t>金能科技股份有限公司</t>
-  </si>
-  <si>
-    <t>603113.SH</t>
-  </si>
-  <si>
-    <t>665,197.43</t>
-  </si>
-  <si>
-    <t>惠州市德赛西威汽车电子股份有限公司</t>
-  </si>
-  <si>
-    <t>002920.SZ</t>
-  </si>
-  <si>
-    <t>601,030.08</t>
-  </si>
-  <si>
-    <t>深南电路股份有限公司</t>
-  </si>
-  <si>
-    <t>002916.SZ</t>
-  </si>
-  <si>
-    <t>568,693.94</t>
-  </si>
-  <si>
-    <t>招商局公路网络科技控股股份有限公司</t>
-  </si>
-  <si>
-    <t>001965.SZ</t>
-  </si>
-  <si>
-    <t>534,066.43</t>
-  </si>
-  <si>
-    <t>福建傲农生物科技集团股份有限公司</t>
-  </si>
-  <si>
-    <t>603363.SH</t>
-  </si>
-  <si>
-    <t>490,266.01</t>
-  </si>
-  <si>
-    <t>中国出版传媒股份有限公司</t>
-  </si>
-  <si>
-    <t>601949.SH</t>
-  </si>
-  <si>
-    <t>469,655.64</t>
-  </si>
-  <si>
-    <t>浙商证券股份有限公司</t>
-  </si>
-  <si>
-    <t>601878.SH</t>
-  </si>
-  <si>
-    <t>461,061.24</t>
-  </si>
-  <si>
-    <t>浙江长城电工科技股份有限公司</t>
-  </si>
-  <si>
-    <t>603897.SH</t>
-  </si>
-  <si>
-    <t>458,395.09</t>
-  </si>
-  <si>
-    <t>江苏省农垦农业发展股份有限公司</t>
-  </si>
-  <si>
-    <t>601952.SH</t>
-  </si>
-  <si>
-    <t>431,551.76</t>
-  </si>
-  <si>
-    <t>佛山市燃气集团股份有限公司</t>
-  </si>
-  <si>
-    <t>002911.SZ</t>
-  </si>
-  <si>
-    <t>429,222.95</t>
-  </si>
-  <si>
-    <t>惠州市华阳集团股份有限公司</t>
-  </si>
-  <si>
-    <t>002906.SZ</t>
-  </si>
-  <si>
-    <t>416,584.80</t>
-  </si>
-  <si>
-    <t>财通证券股份有限公司</t>
-  </si>
-  <si>
-    <t>601108.SH</t>
-  </si>
-  <si>
-    <t>401,153.37</t>
-  </si>
-  <si>
-    <t>广州金域医学检验集团股份有限公司</t>
-  </si>
-  <si>
-    <t>603882.SH</t>
-  </si>
-  <si>
-    <t>379,171.77</t>
-  </si>
-  <si>
-    <t>中农立华生物科技股份有限公司</t>
-  </si>
-  <si>
-    <t>603970.SH</t>
-  </si>
-  <si>
-    <t>350,346.22</t>
-  </si>
-  <si>
-    <t>华夏航空股份有限公司</t>
-  </si>
-  <si>
-    <t>002928.SZ</t>
-  </si>
-  <si>
-    <t>344,844.70</t>
-  </si>
-  <si>
-    <t>索通发展股份有限公司</t>
-  </si>
-  <si>
-    <t>603612.SH</t>
-  </si>
-  <si>
-    <t>328,112.18</t>
-  </si>
-  <si>
-    <t>厦门盈趣科技股份有限公司</t>
-  </si>
-  <si>
-    <t>002925.SZ</t>
-  </si>
-  <si>
-    <t>326,719.57</t>
-  </si>
-  <si>
-    <t>高送转预期</t>
-  </si>
-  <si>
-    <t>嘉友国际物流股份有限公司</t>
-  </si>
-  <si>
-    <t>603871.SH</t>
-  </si>
-  <si>
-    <t>324,424.93</t>
-  </si>
-  <si>
-    <t>300677.SZ</t>
-  </si>
-  <si>
-    <t>175,047.76</t>
-  </si>
-  <si>
-    <t>厦门金牌厨柜股份有限公司</t>
-  </si>
-  <si>
-    <t>603180.SH</t>
-  </si>
-  <si>
-    <t>144,196.71</t>
-  </si>
-  <si>
-    <t>厦门吉比特网络技术股份有限公司</t>
-  </si>
-  <si>
-    <t>603444.SH</t>
-  </si>
-  <si>
-    <t>144,000.77</t>
-  </si>
-  <si>
-    <t>江苏中旗科技股份有限公司</t>
-  </si>
-  <si>
-    <t>300575.SZ</t>
-  </si>
-  <si>
-    <t>129,505.97</t>
-  </si>
-  <si>
-    <t>浙江大元泵业股份有限公司</t>
-  </si>
-  <si>
-    <t>603757.SH</t>
-  </si>
-  <si>
-    <t>112,323.27</t>
-  </si>
-  <si>
-    <t>深圳市飞荣达科技股份有限公司</t>
-  </si>
-  <si>
-    <t>300602.SZ</t>
-  </si>
-  <si>
-    <t>103,641.03</t>
-  </si>
-  <si>
-    <t>江山欧派门业股份有限公司</t>
-  </si>
-  <si>
-    <t>603208.SH</t>
-  </si>
-  <si>
-    <t>100,973.89</t>
-  </si>
-  <si>
-    <t>深圳市新星轻合金材料股份有限公司</t>
-  </si>
-  <si>
-    <t>603978.SH</t>
-  </si>
-  <si>
-    <t>100,918.35</t>
-  </si>
-  <si>
-    <t>广东凌霄泵业股份有限公司</t>
-  </si>
-  <si>
-    <t>002884.SZ</t>
-  </si>
-  <si>
-    <t>98,368.81</t>
-  </si>
-  <si>
-    <t>江苏精研科技股份有限公司</t>
-  </si>
-  <si>
-    <t>300709.SZ</t>
-  </si>
-  <si>
-    <t>92,228.59</t>
-  </si>
-  <si>
-    <t>武汉塞力斯医疗科技股份有限公司</t>
-  </si>
-  <si>
-    <t>603716.SH</t>
-  </si>
-  <si>
-    <t>92,051.65</t>
-  </si>
-  <si>
-    <t>武汉精测电子集团股份有限公司</t>
-  </si>
-  <si>
-    <t>300567.SZ</t>
-  </si>
-  <si>
-    <t>89,508.10</t>
-  </si>
-  <si>
-    <t>深圳市三利谱光电科技股份有限公司</t>
-  </si>
-  <si>
-    <t>002876.SZ</t>
-  </si>
-  <si>
-    <t>81,761.38</t>
-  </si>
-  <si>
-    <t>四川国光农化股份有限公司</t>
-  </si>
-  <si>
-    <t>002749.SZ</t>
-  </si>
-  <si>
-    <t>73,732.31</t>
-  </si>
-  <si>
-    <t>广州赛意信息科技股份有限公司</t>
-  </si>
-  <si>
-    <t>300687.SZ</t>
-  </si>
-  <si>
-    <t>70,889.55</t>
-  </si>
-  <si>
-    <t>上海泛微网络科技股份有限公司</t>
-  </si>
-  <si>
-    <t>603039.SH</t>
-  </si>
-  <si>
-    <t>70,421.77</t>
-  </si>
-  <si>
-    <t>天津绿茵景观生态建设股份有限公司</t>
-  </si>
-  <si>
-    <t>002887.SZ</t>
-  </si>
-  <si>
-    <t>69,569.60</t>
-  </si>
-  <si>
-    <t>倍加洁集团股份有限公司</t>
-  </si>
-  <si>
-    <t>603059.SH</t>
-  </si>
-  <si>
-    <t>66,886.33</t>
-  </si>
-  <si>
-    <t>浙江友邦集成吊顶股份有限公司</t>
-  </si>
-  <si>
-    <t>002718.SZ</t>
-  </si>
-  <si>
-    <t>66,784.36</t>
-  </si>
-  <si>
-    <t>东莞市华立实业股份有限公司</t>
-  </si>
-  <si>
-    <t>603038.SH</t>
-  </si>
-  <si>
-    <t>64,963.69</t>
-  </si>
-  <si>
-    <t>四川川环科技股份有限公司</t>
-  </si>
-  <si>
-    <t>300547.SZ</t>
-  </si>
-  <si>
-    <t>64,777.44</t>
-  </si>
-  <si>
-    <t>佩蒂动物营养科技股份有限公司</t>
-  </si>
-  <si>
-    <t>300673.SZ</t>
-  </si>
-  <si>
-    <t>63,199.79</t>
-  </si>
-  <si>
-    <t>浙江兆丰机电股份有限公司</t>
-  </si>
-  <si>
-    <t>300695.SZ</t>
-  </si>
-  <si>
-    <t>60,847.33</t>
-  </si>
-  <si>
-    <t>浙江长盛滑动轴承股份有限公司</t>
-  </si>
-  <si>
-    <t>300718.SZ</t>
-  </si>
-  <si>
-    <t>56,650.72</t>
-  </si>
-  <si>
-    <t>珠海英搏尔电气股份有限公司</t>
-  </si>
-  <si>
-    <t>300681.SZ</t>
-  </si>
-  <si>
-    <t>53,623.05</t>
-  </si>
-  <si>
-    <t>圣邦微电子(北京)股份有限公司</t>
-  </si>
-  <si>
-    <t>300661.SZ</t>
-  </si>
-  <si>
-    <t>53,150.53</t>
-  </si>
-  <si>
-    <t>002912.SZ</t>
-  </si>
-  <si>
-    <t>49,781.06</t>
-  </si>
-  <si>
-    <t>广东凯普生物科技股份有限公司</t>
-  </si>
-  <si>
-    <t>300639.SZ</t>
-  </si>
-  <si>
-    <t>47,908.51</t>
   </si>
   <si>
     <t>永安行[603776.SH] - 高管</t>
@@ -3022,7 +3073,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="上游"/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3100,6 +3151,106 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A4:D4"/>
@@ -3111,7 +3262,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="下游"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3126,7 +3277,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -3171,7 +3322,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -3191,16 +3342,16 @@
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>15</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>3</v>
@@ -3211,16 +3362,16 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>3</v>
@@ -3231,82 +3382,82 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -3322,130 +3473,190 @@
       <c r="D12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="15">
         <v/>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="F15" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="B18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="F18" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="E19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="D20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3453,8 +3664,8 @@
   <mergeCells count="4">
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
   </mergeCells>
 </worksheet>
 </file>
@@ -3476,12 +3687,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -3498,7 +3709,7 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
@@ -3507,32 +3718,32 @@
         <v>8</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
@@ -3549,7 +3760,7 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>7</v>
@@ -3558,27 +3769,27 @@
         <v>8</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3603,12 +3814,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -3642,7 +3853,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -3651,24 +3862,24 @@
         <v>8</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>3</v>
@@ -3676,16 +3887,16 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>3</v>
@@ -3693,7 +3904,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>3</v>
@@ -3727,7 +3938,7 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>7</v>
@@ -3736,24 +3947,24 @@
         <v>8</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>3</v>
@@ -3761,16 +3972,16 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>3</v>
@@ -3778,7 +3989,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>3</v>
@@ -3818,42 +4029,42 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -3873,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -3893,7 +4104,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -3913,7 +4124,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -3933,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -3953,7 +4164,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -3973,7 +4184,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -3993,7 +4204,7 @@
         <v>3</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -4013,7 +4224,7 @@
         <v>3</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -4033,7 +4244,7 @@
         <v>3</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -4053,7 +4264,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -4073,7 +4284,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -4093,7 +4304,7 @@
         <v>3</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -4113,7 +4324,7 @@
         <v>3</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
@@ -4133,7 +4344,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -4153,7 +4364,7 @@
         <v>3</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -4173,7 +4384,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -4193,7 +4404,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36">
@@ -4213,7 +4424,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
@@ -4233,7 +4444,7 @@
         <v>3</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -4253,7 +4464,7 @@
         <v>3</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -4273,7 +4484,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
@@ -4293,7 +4504,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -4313,7 +4524,7 @@
         <v>3</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
@@ -4333,7 +4544,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43">
@@ -4353,7 +4564,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -4373,7 +4584,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
@@ -4393,7 +4604,7 @@
         <v>3</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -4413,7 +4624,7 @@
         <v>3</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
@@ -4433,12 +4644,12 @@
         <v>3</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>3</v>
@@ -4478,7 +4689,7 @@
     </row>
     <row r="51">
       <c r="A51" s="10" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>7</v>
@@ -4487,33 +4698,33 @@
         <v>8</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E52" s="15">
         <v/>
       </c>
       <c r="F52" s="15" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53">
@@ -4533,27 +4744,27 @@
         <v>3</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
@@ -4570,7 +4781,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="F55" s="15">
         <v/>
@@ -4578,22 +4789,22 @@
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57">
@@ -4610,10 +4821,10 @@
         <v>3</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58">
@@ -4630,10 +4841,10 @@
         <v>3</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -4650,10 +4861,10 @@
         <v>3</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -4670,10 +4881,10 @@
         <v>3</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61">
@@ -4690,10 +4901,10 @@
         <v>3</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62">
@@ -4710,10 +4921,10 @@
         <v>3</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63">
@@ -4730,10 +4941,10 @@
         <v>3</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
@@ -4750,10 +4961,10 @@
         <v>3</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="65">
@@ -4770,10 +4981,10 @@
         <v>3</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66">
@@ -4790,10 +5001,10 @@
         <v>3</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67">
@@ -4810,10 +5021,10 @@
         <v>3</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68">
@@ -4830,10 +5041,10 @@
         <v>3</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69">
@@ -4853,7 +5064,7 @@
         <v/>
       </c>
       <c r="F69" s="15" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70">
@@ -4873,7 +5084,7 @@
         <v>3</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="71">
@@ -4893,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72">
@@ -4913,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73">
@@ -4933,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74">
@@ -4953,7 +5164,7 @@
         <v>3</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75">
@@ -4973,7 +5184,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76">
@@ -4993,7 +5204,7 @@
         <v>3</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77">
@@ -5013,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
@@ -5033,7 +5244,7 @@
         <v>3</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79">
@@ -5053,7 +5264,7 @@
         <v>3</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
@@ -5073,7 +5284,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81">
@@ -5093,7 +5304,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
@@ -5113,7 +5324,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83">
@@ -5133,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84">
@@ -5153,7 +5364,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -5173,41 +5384,41 @@
         <v>3</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="11" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="E86" s="15">
         <v/>
       </c>
       <c r="F86" s="15" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="11" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E87" s="15" t="s">
         <v>3</v>
@@ -5218,16 +5429,16 @@
     </row>
     <row r="88">
       <c r="A88" s="11" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="E88" s="15" t="s">
         <v>3</v>
@@ -5250,7 +5461,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="投资"/>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5265,12 +5476,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -5310,7 +5521,7 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -5319,27 +5530,27 @@
         <v>8</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>3</v>
@@ -5350,16 +5561,16 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>3</v>
@@ -5370,16 +5581,16 @@
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>3</v>
@@ -5390,16 +5601,16 @@
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>3</v>
@@ -5410,16 +5621,16 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>3</v>
@@ -5430,16 +5641,16 @@
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>3</v>
@@ -5450,16 +5661,16 @@
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>3</v>
@@ -5470,16 +5681,16 @@
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>3</v>
@@ -5490,16 +5701,16 @@
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>3</v>
@@ -5510,16 +5721,16 @@
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>3</v>
@@ -5530,16 +5741,16 @@
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>3</v>
@@ -5550,16 +5761,16 @@
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>3</v>
@@ -5570,16 +5781,16 @@
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>3</v>
@@ -5590,16 +5801,16 @@
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>3</v>
@@ -5610,16 +5821,16 @@
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>3</v>
@@ -5630,19 +5841,19 @@
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="F21" s="15">
         <v/>
@@ -5662,7 +5873,7 @@
         <v>3</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>3</v>
@@ -5682,7 +5893,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>3</v>
@@ -5702,7 +5913,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="F24" s="15" t="s">
         <v>3</v>
@@ -5722,7 +5933,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="F25" s="15" t="s">
         <v>3</v>
@@ -5742,7 +5953,7 @@
         <v>3</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="F26" s="15" t="s">
         <v>3</v>
@@ -5762,7 +5973,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F27" s="15" t="s">
         <v>3</v>
@@ -5782,7 +5993,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>3</v>
@@ -5802,7 +6013,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>3</v>
@@ -5822,7 +6033,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>3</v>
@@ -5842,7 +6053,7 @@
         <v>3</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="F31" s="15" t="s">
         <v>3</v>
@@ -5862,7 +6073,7 @@
         <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F32" s="15" t="s">
         <v>3</v>
@@ -5882,7 +6093,7 @@
         <v>3</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>3</v>
@@ -5902,7 +6113,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="F34" s="15" t="s">
         <v>3</v>
@@ -5922,7 +6133,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F35" s="15" t="s">
         <v>3</v>
@@ -5942,7 +6153,7 @@
         <v>3</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>3</v>
@@ -5962,9 +6173,29 @@
         <v>3</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="F37" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F38" s="15" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5991,12 +6222,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -6007,348 +6238,348 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>3</v>
@@ -6359,348 +6590,348 @@
     </row>
     <row r="37">
       <c r="A37" s="10" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="11" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="11" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="11" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="11" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="11" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>3</v>
@@ -6711,106 +6942,106 @@
     </row>
     <row r="70">
       <c r="A70" s="10" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B70" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="11" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="11" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="11" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="11" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="11" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="11" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="11" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="11" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>3</v>
@@ -6821,123 +7052,123 @@
     </row>
     <row r="81">
       <c r="A81" s="10" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="11" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="11" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="11" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="11" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="11" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="11" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="11" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="11" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="11" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="11" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -6959,12 +7190,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -6975,832 +7206,832 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>424</v>
+        <v>138</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>418</v>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>3</v>
+      <c r="A16" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>203</v>
+      <c r="A17" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="11" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="11" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="11" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="11" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="11" t="s">
-        <v>485</v>
+        <v>97</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="11" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>496</v>
+      <c r="A36" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>499</v>
+      <c r="A37" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="11" t="s">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="11" t="s">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="11" t="s">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="11" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="11" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="11" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="11" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="11" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="11" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>529</v>
+        <v>553</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>3</v>
+      <c r="A49" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>203</v>
+      <c r="A50" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="11" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="11" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="11" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="11" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="11" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="11" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="11" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="11" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="11" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="11" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="11" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="11" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="11" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="11" t="s">
-        <v>585</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="C69" s="14" t="s">
-        <v>587</v>
+      <c r="A69" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>590</v>
+      <c r="A70" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="11" t="s">
-        <v>591</v>
+        <v>615</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="11" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>596</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="11" t="s">
-        <v>597</v>
+        <v>621</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>598</v>
+        <v>622</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="11" t="s">
-        <v>600</v>
+        <v>624</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>601</v>
+        <v>625</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>602</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="11" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>604</v>
+        <v>628</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="11" t="s">
-        <v>606</v>
+        <v>424</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>607</v>
+        <v>425</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>608</v>
+        <v>426</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="11" t="s">
-        <v>609</v>
+        <v>427</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>610</v>
+        <v>428</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>611</v>
+        <v>429</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="11" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="11" t="s">
-        <v>615</v>
+        <v>414</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>616</v>
+        <v>415</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>617</v>
+        <v>416</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="11" t="s">
-        <v>618</v>
+        <v>433</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>619</v>
+        <v>434</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>620</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>3</v>
@@ -7811,343 +8042,343 @@
     </row>
     <row r="83">
       <c r="A83" s="10" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="11" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="11" t="s">
-        <v>122</v>
+        <v>637</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="11" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="11" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="11" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="11" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="11" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="11" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="11" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="11" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="11" t="s">
-        <v>343</v>
+        <v>664</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>344</v>
+        <v>665</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>345</v>
+        <v>666</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="11" t="s">
-        <v>651</v>
+        <v>667</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>652</v>
+        <v>668</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>653</v>
+        <v>669</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="11" t="s">
-        <v>654</v>
+        <v>670</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="11" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>659</v>
+        <v>675</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="11" t="s">
-        <v>660</v>
+        <v>676</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>661</v>
+        <v>677</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>662</v>
+        <v>678</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="11" t="s">
-        <v>663</v>
+        <v>679</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>664</v>
+        <v>680</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>665</v>
+        <v>681</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="11" t="s">
-        <v>666</v>
+        <v>682</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>667</v>
+        <v>683</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="11" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>670</v>
+        <v>686</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="11" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>674</v>
+        <v>690</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="11" t="s">
-        <v>675</v>
+        <v>691</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="11" t="s">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>680</v>
+        <v>696</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="11" t="s">
-        <v>681</v>
+        <v>697</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>682</v>
+        <v>698</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>683</v>
+        <v>699</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="11" t="s">
-        <v>684</v>
+        <v>700</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>685</v>
+        <v>701</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="11" t="s">
-        <v>687</v>
+        <v>703</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>688</v>
+        <v>704</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="11" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>691</v>
+        <v>707</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>692</v>
+        <v>708</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="11" t="s">
-        <v>693</v>
+        <v>709</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>694</v>
+        <v>710</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="11" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>698</v>
+        <v>714</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="11" t="s">
-        <v>699</v>
+        <v>715</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="11" t="s">
-        <v>81</v>
+        <v>718</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="11" t="s">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>705</v>
+        <v>722</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>706</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -8171,12 +8402,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>707</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -8193,143 +8424,143 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>709</v>
+        <v>726</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>714</v>
+        <v>731</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>721</v>
+        <v>738</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>717</v>
+        <v>734</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>723</v>
+        <v>740</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>726</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>708</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>720</v>
+        <v>737</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>708</v>
+        <v>725</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>3</v>
@@ -8346,109 +8577,109 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>730</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>712</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>731</v>
+        <v>748</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>733</v>
+        <v>750</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>722</v>
+        <v>739</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>734</v>
+        <v>751</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>737</v>
+        <v>754</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>726</v>
+        <v>743</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
-        <v>739</v>
+        <v>756</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>738</v>
+        <v>755</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>740</v>
+        <v>757</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>3</v>
@@ -8465,70 +8696,70 @@
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>710</v>
+        <v>727</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>713</v>
+        <v>730</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
-        <v>742</v>
+        <v>759</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>743</v>
+        <v>760</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="11" t="s">
-        <v>744</v>
+        <v>761</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>732</v>
+        <v>749</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>736</v>
+        <v>753</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>740</v>
+        <v>757</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>745</v>
+        <v>762</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="11" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>716</v>
+        <v>733</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>740</v>
+        <v>757</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>747</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
